--- a/Design.xlsx
+++ b/Design.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/girishawate/Projects/MyIdKeyStore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0575A-1570-984C-BCDD-82FD0871D4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D33968-E31A-9248-84BB-1701F1176AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{8B5DE4DD-95BD-004F-9D9D-DEAFA2F48960}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{8B5DE4DD-95BD-004F-9D9D-DEAFA2F48960}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034174F1-5970-C942-B336-28005B7CF065}">
   <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26877D4D-83AA-5E49-9621-0893D9CF6E55}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
